--- a/project/weather.xlsx
+++ b/project/weather.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -971,6 +971,1656 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>도시</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>날씨</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>온도</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>백령도</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>박무</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>인천</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>연무</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>구름많음</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>파주</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>구름많음</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>춘천</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>구름많음</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>속초</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>구름많음</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>강릉</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>연무</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>울릉도독도</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>흐림</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>수원</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>연무</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>청주</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>흐림</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>안동</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>구름많음</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>대전</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>흐림</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>홍성</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>연무</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>전주</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>구름많음</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>구름조금</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>울산</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>구름조금</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>포항</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>연무</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>맑음</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>13.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>창원</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>맑음</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>13.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>광주</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>맑음</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>13.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>목포</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>맑음</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>여수</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>맑음</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>14.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>흑산도</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>맑음</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>제주</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>구름많음</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>13.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>도시</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>날씨</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>온도</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>백령도</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>박무</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>인천</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>연무</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>구름많음</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>파주</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>구름많음</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>춘천</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>구름많음</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>속초</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>구름많음</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>강릉</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>연무</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>울릉도독도</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>흐림</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>수원</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>연무</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>청주</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>흐림</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>안동</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>구름많음</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>10.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>대전</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>흐림</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>10.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>홍성</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>연무</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>전주</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>구름많음</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>11.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>구름조금</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>13.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>울산</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>구름조금</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>포항</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>연무</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>맑음</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>13.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>창원</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>맑음</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>13.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>광주</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>맑음</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>13.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>목포</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>맑음</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>여수</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>맑음</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>14.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>흑산도</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>맑음</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>제주</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>구름많음</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>13.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>도시</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>날씨</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>온도</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>백령도</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>박무</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>인천</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>연무</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>연무</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>파주</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>구름많음</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>춘천</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>구름많음</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>속초</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>구름많음</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>강릉</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>연무</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>울릉도독도</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>비</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>수원</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>연무</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>청주</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>흐림</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>안동</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>구름많음</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>10.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>대전</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>구름많음</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>10.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>홍성</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>연무</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>전주</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>흐림</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>11.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>구름많음</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>13.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>울산</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>구름조금</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>10.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>포항</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>연무</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>맑음</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>창원</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>맑음</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>12.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>광주</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>맑음</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>12.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>목포</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>맑음</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>여수</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>맑음</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>13.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>흑산도</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>맑음</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>제주</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>맑음</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>13.9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/project/weather.xlsx
+++ b/project/weather.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D625"/>
+  <dimension ref="A1:D650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14171,6 +14171,556 @@
         </is>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>도시</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>날씨</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>온도</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>0216</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>백령도</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>구름조금</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>0216</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>인천</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>흐림</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>0216</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>구름많음</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>0216</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>파주</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>흐림</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>-1.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>0216</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>춘천</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>흐림</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>-1.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>0216</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>속초</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>구름조금</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>-3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>0216</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>강릉</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>맑음</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>-1.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>0216</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>울릉도독도</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>구름많음</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>-0.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>0216</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>수원</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>흐림</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>0216</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>청주</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>비 또는 눈</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>0216</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>안동</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>흐림</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>-0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>0216</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>대전</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>구름많음</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>0216</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>홍성</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>흐림</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>0216</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>전주</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>연무</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>0216</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>흐림</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>0216</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>울산</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>흐림</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>0216</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>포항</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>흐림</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>0216</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>흐림</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>0216</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>창원</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>흐림</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>0216</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>광주</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>흐림</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>0216</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>목포</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>흐림</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>0216</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>여수</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>흐림</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>0216</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>흑산도</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>구름많음</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>0216</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>제주</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>흐림</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>6.4</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
